--- a/data/auto_test_excel.xlsx
+++ b/data/auto_test_excel.xlsx
@@ -16,15 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
   <si>
     <t>用例ID</t>
   </si>
   <si>
+    <t>产品线</t>
+  </si>
+  <si>
     <t>模块</t>
   </si>
   <si>
-    <t>接口名称</t>
+    <t>用例名称</t>
   </si>
   <si>
     <t>请求URL</t>
@@ -33,6 +36,12 @@
     <t>前置条件</t>
   </si>
   <si>
+    <t>后置条件</t>
+  </si>
+  <si>
+    <t>全局条件</t>
+  </si>
+  <si>
     <t>请求类型</t>
   </si>
   <si>
@@ -60,16 +69,22 @@
     <t>status_code</t>
   </si>
   <si>
+    <t>数据库是否要验证</t>
+  </si>
+  <si>
     <t>数据库验证</t>
   </si>
   <si>
     <t>1.0</t>
   </si>
   <si>
+    <t>user_web</t>
+  </si>
+  <si>
     <t>发布订单</t>
   </si>
   <si>
-    <t>请求获取reorderToken1</t>
+    <t>请求获取reorderToken</t>
   </si>
   <si>
     <t>https://test-user-site-api.wanshifu.com/order/publish/info</t>
@@ -88,15 +103,6 @@
   </si>
   <si>
     <t>2.0</t>
-  </si>
-  <si>
-    <t>请求获取reorderToken</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>3.0</t>
   </si>
   <si>
     <t>发布师傅-家具安装订单</t>
@@ -276,14 +282,269 @@
   <si>
     <t>SELECT order_id as orderId FROM t_user_order_service.order_base WHERE user_id = 3402033689 ORDER BY create_time DESC LIMIT 1</t>
   </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>发布直接雇佣师傅-家具安装订单</t>
+  </si>
+  <si>
+    <t>{
+    "orderGoodsList":[
+        {
+            "userGoodsImageList":[
+                {
+                    "aid":"5234472534",
+                    "height":null,
+                    "iid":"5234472531",
+                    "name":"file_1646361822000",
+                    "path":"https://qncdn.wanshifu.com/da2f8aa240a208e7ef931d51fe2ccb8a",
+                    "status":1,
+                    "width":null
+                },
+                {
+                    "aid":"5234472536",
+                    "height":null,
+                    "iid":"5234472535",
+                    "name":"file_1646361822000",
+                    "path":"https://qncdn.wanshifu.com/9e1df71c40eeb8b60a2c02b612331880",
+                    "status":1,
+                    "width":null
+                },
+                {
+                    "aid":"5234472538",
+                    "height":null,
+                    "iid":"5234472537",
+                    "name":"file_1646361822000",
+                    "path":"https://qncdn.wanshifu.com/43a074721103d595b9d7ed05266b5a79",
+                    "status":1,
+                    "width":null
+                }
+            ],
+            "uniKey":"l0btbl4k",
+            "bulkUnit":null,
+            "ancillaryGoods":{
+            },
+            "userVideo":{
+            },
+            "goodsName":null,
+            "name":null,
+            "environmentalImgLists":[
+            ],
+            "note":null,
+            "number":1,
+            "goodsUnit":"个",
+            "goodsCategory":401,
+            "installRequire":{
+            },
+            "installRequireNum":[
+            ],
+            "fixedWallAttr":{
+            },
+            "categoryChild":78,
+            "goodsBrand":null,
+            "repairAttr":{
+            },
+            "cabinetIncludeConfig":{
+            },
+            "haveCabinet":null,
+            "isSelectCategory":true,
+            "goodsAttr":{
+            },
+            "videoType":null,
+            "videoUrl":null,
+            "videoId":null,
+            "orderGoodsImage":{
+                "goodsImageList":[
+                    {
+                        "attachmentId":"5234472534"
+                    },
+                    {
+                        "attachmentId":"5234472536"
+                    },
+                    {
+                        "attachmentId":"5234472538"
+                    }
+                ],
+                "environmentImageList":[
+                ]
+            }
+        }
+    ],
+    "toAccountId":4957775956,
+    "reOrderToken":"${reOrderToken}$",
+    "orderBase":{
+        "fourthDivisionId":440306001,
+        "thirdDivisionId":440306,
+        "serveTypeId":4,
+        "categoryId":1,
+        "serveType":4
+    },
+    "isDefinitePrice":"0",
+    "orderExtraData":{
+        "clearanceType":"",
+        "contactName":"孙姐",
+        "contactPhone":"18806862021",
+        "buyerAddress":"新安街道某街道某某路某花园${reOrderToken}$",
+        "buyerPhone":"15915468082",
+        "buyerName":"万某某",
+        "floorNum":"0"
+    },
+    "orderLogisticsInfo":{
+        "trackingIsIdentified":0,
+        "customArriveStatus":"1"
+    },
+    "rateAwardData":{
+    },
+    "toAccountType":"master"
+}</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>查看订单</t>
+  </si>
+  <si>
+    <t>查看真接雇佣订单详情</t>
+  </si>
+  <si>
+    <t>https://test-user-api.wanshifu.com/orders/normal/view</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>{"id":"${orderId}$"}</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>enterprise</t>
+  </si>
+  <si>
+    <t>订单列表</t>
+  </si>
+  <si>
+    <t>查看订单列表</t>
+  </si>
+  <si>
+    <t>https://test-enterprise-api.wanshifu.com/order/list</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>{"rateStatus": "false",
+"hasCountdownTime": "false",
+"payFail": "false",
+"orderNoType": "order_no",
+"orderCode":"",
+"masterInformation": "",
+"userType": "buyer_name",
+"buyerInformation":"",
+"originType": "origin_type",
+"trackingId":"", 
+"timeType": "create_time",
+"beginTime": "2021/12/14 00:00:00",
+"endTime": "2022/03/14 23:59:59",
+"customerAddress":"",
+"orderStatus":"", 
+"appointStatus":"",
+"pageNum": "1"}</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>user_app</t>
+  </si>
+  <si>
+    <t>https://test-user-app-api.wanshifu.com/order/publish/info/v1</t>
+  </si>
+  <si>
+    <t>{"appVersion":"2.7.0","appClient":"android","appChannel":"wsf"}</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>master_app</t>
+  </si>
+  <si>
+    <t>首页</t>
+  </si>
+  <si>
+    <t>获取待报价师傅订单列表</t>
+  </si>
+  <si>
+    <t>https://test-master-order-api.wanshifu.com/task/ordinaryService/receivingList</t>
+  </si>
+  <si>
+    <t>{"timeStamp":"1647401383443",
+"apkChannel":"default",
+"phoneType":"android",
+"signature":"${signature}$",
+"versionName":"6.7.0",
+"versionCode":"670",
+"appointType":"-1",
+"sortQueryType":"",
+"pageSize":"5",
+"orderFrom":"-1",
+"page":"1",
+"divisionId":""}</t>
+  </si>
+  <si>
+    <t>{"phoneType":"android","versionCode":"6.7.0","versionCode":"670","apkChannel":"default",
+"signature":"${signature}$"}</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>报价</t>
+  </si>
+  <si>
+    <t>公开招标订单报价</t>
+  </si>
+  <si>
+    <t>https://test-master-order-api.wanshifu.com/task/ordinaryService/offerPrice</t>
+  </si>
+  <si>
+    <t>{
+    "apkChannel":"default",
+    "phoneType":"android",
+    "offerPrice":"100",
+    "orderId":"5242469574",
+    "signature":"${signature}$",
+    "offerNote":"",
+    "belongUserShare":"0",
+    "orderServeType":"4",
+    "versionName":"6.7.0",
+    "versionCode":"670",
+    "timeStamp":"1647401037099",
+    "includeFitting":false,
+    "orderModifyTime":"2022-03-16 11:22:52"
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -299,6 +560,97 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,92 +679,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,14 +694,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -449,25 +710,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,157 +872,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,6 +915,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,15 +984,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -732,21 +1008,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -763,10 +1024,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,16 +1036,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -793,119 +1054,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,6 +1184,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1278,31 +1545,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="63" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
-    <col min="6" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="22.625" customWidth="1"/>
-    <col min="9" max="14" width="12.5" customWidth="1"/>
-    <col min="15" max="15" width="12.5" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="11.2416666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="63" customWidth="1"/>
+    <col min="6" max="8" width="12.5" style="1" customWidth="1"/>
+    <col min="9" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="22.625" customWidth="1"/>
+    <col min="12" max="14" width="12.5" customWidth="1"/>
+    <col min="15" max="15" width="23.05" customWidth="1"/>
+    <col min="16" max="17" width="12.5" customWidth="1"/>
+    <col min="18" max="18" width="16.25" customWidth="1"/>
+    <col min="19" max="19" width="12.5" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:19">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -1311,16 +1584,16 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -1341,126 +1614,615 @@
       <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" ht="109" customHeight="1" spans="1:19">
       <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="K2" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="4">
+      <c r="N2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4">
         <v>200</v>
       </c>
-      <c r="O2" s="6"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="8"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" ht="109" customHeight="1" spans="1:19">
       <c r="A3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4" t="s">
+      <c r="J3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4">
+        <v>200</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" ht="109" customHeight="1" spans="1:19">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4">
+        <v>200</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" ht="109" customHeight="1" spans="1:19">
+      <c r="A5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4">
+        <v>200</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" ht="40" customHeight="1" spans="1:19">
+      <c r="A6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4">
+        <v>200</v>
+      </c>
+      <c r="R6" s="4"/>
+      <c r="S6" s="8"/>
+    </row>
+    <row r="7" ht="40.5" spans="1:19">
+      <c r="A7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4" t="s">
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4">
+      <c r="K7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4">
         <v>200</v>
       </c>
-      <c r="O3" s="6"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="8"/>
     </row>
-    <row r="4" ht="409.5" spans="1:15">
-      <c r="A4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="7" t="s">
+    <row r="8" ht="44" customHeight="1" spans="1:19">
+      <c r="A8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4">
+        <v>200</v>
+      </c>
+      <c r="R8" s="4"/>
+      <c r="S8" s="8"/>
+    </row>
+    <row r="9" ht="55" customHeight="1" spans="1:19">
+      <c r="A9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4">
-        <v>200</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="K9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="8"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="8"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="8"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="8"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="8"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="8"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="8"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="8"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="8"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="8"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://test-user-site-api.wanshifu.com/order/publish/info"/>
-    <hyperlink ref="D3" r:id="rId1" display="https://test-user-site-api.wanshifu.com/order/publish/info" tooltip="https://test-user-site-api.wanshifu.com/order/publish/info"/>
-    <hyperlink ref="D4" r:id="rId2" display="https://test-user-site-api.wanshifu.com/order/publish/create" tooltip="https://test-user-site-api.wanshifu.com/order/publish/create"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://test-user-site-api.wanshifu.com/order/publish/info" tooltip="https://test-user-site-api.wanshifu.com/order/publish/info"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://test-user-site-api.wanshifu.com/order/publish/create" tooltip="https://test-user-site-api.wanshifu.com/order/publish/create"/>
+    <hyperlink ref="E4" r:id="rId2" display="https://test-user-site-api.wanshifu.com/order/publish/create" tooltip="https://test-user-site-api.wanshifu.com/order/publish/create"/>
+    <hyperlink ref="E5" r:id="rId3" display="https://test-user-api.wanshifu.com/orders/normal/view" tooltip="https://test-user-api.wanshifu.com/orders/normal/view"/>
+    <hyperlink ref="E6" r:id="rId4" display="https://test-enterprise-api.wanshifu.com/order/list"/>
+    <hyperlink ref="E7" r:id="rId5" display="https://test-user-app-api.wanshifu.com/order/publish/info/v1"/>
+    <hyperlink ref="E9" r:id="rId6" display="https://test-master-order-api.wanshifu.com/task/ordinaryService/offerPrice" tooltip="https://test-master-order-api.wanshifu.com/task/ordinaryService/offerPrice"/>
+    <hyperlink ref="E8" r:id="rId7" display="https://test-master-order-api.wanshifu.com/task/ordinaryService/receivingList"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
